--- a/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Output_data/result_df.xlsx
+++ b/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Output_data/result_df.xlsx
@@ -834,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">

--- a/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Output_data/result_df.xlsx
+++ b/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Output_data/result_df.xlsx
@@ -498,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -834,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,7 +890,7 @@
         <v>22</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,7 +904,7 @@
         <v>33</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">

--- a/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Output_data/result_df.xlsx
+++ b/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Output_data/result_df.xlsx
@@ -498,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -848,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,7 +890,7 @@
         <v>22</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,7 +904,7 @@
         <v>33</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
